--- a/URS/DbLayouts/L6-共同作業/CdPfParms.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdPfParms.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEDEBF8-CCB0-43F5-9C02-AE95A5357A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -163,13 +162,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>條件記號1=1時為商品別代號
-條件記號1=2時為部門別代號
-條件記號1=3時為為空白1位
-條件記號1=4時為員工代碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Decimal</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -178,38 +170,56 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>不輸入為0(顯示空白)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>WorkMonthEnd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效工作月(止)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionCode1,ConditionCode2,Condition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionCode1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ConditionCode1 = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionCode2 ASC,Condition ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findConditionCode1Eq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCode1AndCode2Eq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ConditionCode1 = ,AND ConditionCode2 = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WorkMonthStart</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>WorkMonthEnd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>有效工作月(起)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>有效工作月(止)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需大於有效工作月(起)，或為0(顯示空白)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionCode1,ConditionCode2,Condition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.排除商品別
-2.排除部門別
-3.是否排除15日薪非業績人員
-4.業績追回時通知員工代碼(email)</t>
+    <t>需大於有效工作月(起)，或為0(顯示空白)
+業績重算時(已重算工作月)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -218,42 +228,35 @@
 2.換算業績、業務報酬
 3.介紹獎金
 4.加碼獎勵津貼
-5.協辦獎金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionCode1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ConditionCode1 = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionCode2 ASC,Condition ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findConditionCode1Eq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findCode1AndCode2Eq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ConditionCode1 = ,AND ConditionCode2 = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+5.協辦獎金
+其他為空白1位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>條件記號1=1時為商品別代號
+條件記號1=2時為部門別代號
+條件記號1=3、R時為為空白1位
+條件記號1=4時為員工代碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.排除商品別
+2.排除部門別
+3.是否排除15日薪非業績人員
+4.業績追回時通知員工代碼(email)
+R.業績重算設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不輸入為0(顯示空白)
+業績重算時(重算工作月)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11">
     <font>
       <sz val="12"/>
@@ -542,7 +545,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -633,23 +636,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -685,23 +671,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -877,11 +846,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -930,7 +899,7 @@
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>17</v>
@@ -1006,12 +975,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="62.4" customHeight="1">
+    <row r="9" spans="1:7" ht="95.4" customHeight="1">
       <c r="A9" s="16">
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>34</v>
@@ -1023,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="103.8" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="117.6" customHeight="1">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -1043,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="68.400000000000006" customHeight="1">
@@ -1063,48 +1032,48 @@
         <v>6</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="12" customFormat="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="32.4">
       <c r="A12" s="16">
         <v>4</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="30">
         <v>6</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19.2" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="38.4" customHeight="1">
       <c r="A13" s="16">
         <v>5</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="30">
         <v>6</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1192,10 +1161,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -1221,24 +1190,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
